--- a/results/tables/Table_of_Exclusion_False_Positives.xlsx
+++ b/results/tables/Table_of_Exclusion_False_Positives.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,12 +579,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D9">
@@ -605,22 +605,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -631,22 +631,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -657,7 +657,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -666,13 +666,13 @@
         </is>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
@@ -683,7 +683,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>Qiime2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -692,90 +692,12 @@
         </is>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>52.5</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CO1</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>2.5</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>CO1</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>32</v>
-      </c>
-      <c r="E15">
-        <v>12</v>
-      </c>
-      <c r="F15">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>CO1</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Qiime2</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>52.5</v>
-      </c>
-      <c r="E16">
-        <v>42</v>
-      </c>
-      <c r="F16">
         <v>67</v>
       </c>
     </row>
